--- a/public/vendor/js-xlsx/template-listbkb.xlsx
+++ b/public/vendor/js-xlsx/template-listbkb.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="lms" vbProcedure="false"/>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">btb</t>
   </si>
@@ -28,32 +31,93 @@
     <t xml:space="preserve">bkb</t>
   </si>
   <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">079-0002014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">889-2249005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isi apa aja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">079-0002016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">369-0005875</t>
+    <t xml:space="preserve">Tgl Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tgl Jatuh tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. Invoice/Voucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0006858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/Nov/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/Nov/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 GALLON VIT LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPTY BOTTLE VIT 5 GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALLET RENT DOUBLE FACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0006894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 GALLON AQUA LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPTY BOTTLE AQUA 5 GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUG RACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555-0009542</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-409]@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -75,6 +139,40 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -118,28 +216,92 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Comma [0]" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -149,62 +311,340 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.74"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>2050350280</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>-103</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>7440</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <f aca="false">+G2*H2</f>
+        <v>-766320</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>2050350280</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>-10240</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <f aca="false">+G3*H3</f>
+        <v>-307200000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>2050350280</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>-1744</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <f aca="false">+G4*H4</f>
+        <v>-174400000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>2050350281</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>-5017</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>9850</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <f aca="false">+G5*H5</f>
+        <v>-49417450</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>2050350281</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>-234768</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <f aca="false">+G6*H6</f>
+        <v>-7043040000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>2050350281</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>-1856</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <f aca="false">+G7*H7</f>
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
